--- a/김한울팀/개발일정표(수정본)4.xlsx
+++ b/김한울팀/개발일정표(수정본)4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\새 폴더\팀프로젝트(김한울,이우엽,정인호)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_Test\김한울팀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>작업시작예정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,30 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,16 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,16 +655,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +965,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -988,7 +1018,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1019,11 +1049,11 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1048,9 +1078,9 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1075,9 +1105,9 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1097,12 +1127,14 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1122,12 +1154,14 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1147,14 +1181,16 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1177,10 +1213,10 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1208,8 +1244,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1235,8 +1271,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1262,8 +1298,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,9 +1325,9 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1314,8 +1350,8 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1343,8 +1379,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1370,8 +1406,8 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1397,8 +1433,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1419,21 +1455,23 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="24"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>1</v>
       </c>
       <c r="G18" s="7">
@@ -1449,8 +1487,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1471,11 +1509,13 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1498,11 +1538,13 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1523,11 +1565,13 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1548,11 +1592,13 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="24"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1573,11 +1619,13 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="24"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1600,18 +1648,18 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="24"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="1">
@@ -1625,23 +1673,23 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="12">
         <v>1</v>
       </c>
       <c r="G26" s="7">
@@ -1652,7 +1700,9 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1661,7 +1711,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="2"/>
@@ -1669,7 +1719,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1692,23 +1742,23 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>1</v>
       </c>
       <c r="G29" s="7">
@@ -1719,7 +1769,7 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
